--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H2">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I2">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J2">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N2">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O2">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P2">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q2">
-        <v>178.0648861000395</v>
+        <v>1387.56490387606</v>
       </c>
       <c r="R2">
-        <v>712.259544400158</v>
+        <v>5550.25961550424</v>
       </c>
       <c r="S2">
-        <v>0.02140920587785413</v>
+        <v>0.1912399803744737</v>
       </c>
       <c r="T2">
-        <v>0.01615840897910847</v>
+        <v>0.1883512353227161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H3">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I3">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J3">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P3">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q3">
-        <v>106.8123568262079</v>
+        <v>135.0553950855308</v>
       </c>
       <c r="R3">
-        <v>640.8741409572472</v>
+        <v>810.3323705131851</v>
       </c>
       <c r="S3">
-        <v>0.01284232836510148</v>
+        <v>0.01861389765154417</v>
       </c>
       <c r="T3">
-        <v>0.01453895080120419</v>
+        <v>0.02749909257970398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H4">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I4">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J4">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N4">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O4">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P4">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q4">
-        <v>2.482709592774</v>
+        <v>4.089103985210834</v>
       </c>
       <c r="R4">
-        <v>14.896257556644</v>
+        <v>24.534623911265</v>
       </c>
       <c r="S4">
-        <v>0.000298502652436258</v>
+        <v>0.0005635773603789216</v>
       </c>
       <c r="T4">
-        <v>0.0003379383593393592</v>
+        <v>0.0008325964985414801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H5">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I5">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J5">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N5">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O5">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P5">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q5">
-        <v>3626.65242806688</v>
+        <v>5628.79715297133</v>
       </c>
       <c r="R5">
-        <v>14506.60971226752</v>
+        <v>22515.18861188532</v>
       </c>
       <c r="S5">
-        <v>0.4360418843964665</v>
+        <v>0.7757842923665365</v>
       </c>
       <c r="T5">
-        <v>0.3290987596783037</v>
+        <v>0.7640658063500833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H6">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I6">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J6">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N6">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O6">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P6">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q6">
-        <v>597.1547421771081</v>
+        <v>17.48153251579583</v>
       </c>
       <c r="R6">
-        <v>3582.928453062649</v>
+        <v>104.889195094775</v>
       </c>
       <c r="S6">
-        <v>0.07179747279889885</v>
+        <v>0.002409377698944118</v>
       </c>
       <c r="T6">
-        <v>0.08128276236189652</v>
+        <v>0.003559474842027082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H7">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I7">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J7">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O7">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P7">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q7">
-        <v>5.541997233972167</v>
+        <v>4.453911350373334</v>
       </c>
       <c r="R7">
-        <v>33.25198340383301</v>
+        <v>26.72346810224</v>
       </c>
       <c r="S7">
-        <v>0.0006663287880910391</v>
+        <v>0.0006138566324758552</v>
       </c>
       <c r="T7">
-        <v>0.0007543586483746696</v>
+        <v>0.0009068761783869853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J8">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N8">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O8">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P8">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q8">
-        <v>0.075296584409</v>
+        <v>0.4640447426906667</v>
       </c>
       <c r="R8">
-        <v>0.451779506454</v>
+        <v>2.784268456144</v>
       </c>
       <c r="S8">
-        <v>9.053104813746571E-06</v>
+        <v>6.395658122884287E-05</v>
       </c>
       <c r="T8">
-        <v>1.024912630663498E-05</v>
+        <v>9.4485742922703E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J9">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P9">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q9">
         <v>0.04516671320122223</v>
@@ -1013,10 +1013,10 @@
         <v>0.406500418811</v>
       </c>
       <c r="S9">
-        <v>5.430511781012753E-06</v>
+        <v>6.225064731784795E-06</v>
       </c>
       <c r="T9">
-        <v>9.221919269412826E-06</v>
+        <v>1.37948242688279E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J10">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N10">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O10">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P10">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q10">
-        <v>0.001049839508</v>
+        <v>0.001367523206555556</v>
       </c>
       <c r="R10">
-        <v>0.009448555572</v>
+        <v>0.012307708859</v>
       </c>
       <c r="S10">
-        <v>1.262249433773799E-07</v>
+        <v>1.884777500877766E-07</v>
       </c>
       <c r="T10">
-        <v>2.14351111746473E-07</v>
+        <v>4.176691412973448E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J11">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N11">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O11">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P11">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q11">
-        <v>1.533567603657834</v>
+        <v>1.882444359332</v>
       </c>
       <c r="R11">
-        <v>9.201405621947</v>
+        <v>11.294666155992</v>
       </c>
       <c r="S11">
-        <v>0.0001843848345028126</v>
+        <v>0.0002594463302790816</v>
       </c>
       <c r="T11">
-        <v>0.0002087442371127524</v>
+        <v>0.0003832909576150513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J12">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N12">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O12">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P12">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q12">
-        <v>0.2525130778693334</v>
+        <v>0.005846366707222222</v>
       </c>
       <c r="R12">
-        <v>2.272617700824</v>
+        <v>0.05261730036499999</v>
       </c>
       <c r="S12">
-        <v>3.036030623083059E-05</v>
+        <v>8.057706354693309E-07</v>
       </c>
       <c r="T12">
-        <v>5.15568889905173E-05</v>
+        <v>1.785598189931478E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.049831</v>
       </c>
       <c r="I13">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J13">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N13">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O13">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P13">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q13">
-        <v>0.002343491025444445</v>
+        <v>0.001489526104888889</v>
       </c>
       <c r="R13">
-        <v>0.021091419229</v>
+        <v>0.013405734944</v>
       </c>
       <c r="S13">
-        <v>2.817640408252982E-07</v>
+        <v>2.052926982157667E-07</v>
       </c>
       <c r="T13">
-        <v>4.784825707587094E-07</v>
+        <v>4.549312846660251E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H14">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I14">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J14">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N14">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O14">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P14">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q14">
-        <v>0.082924309281</v>
+        <v>1.344268642845333</v>
       </c>
       <c r="R14">
-        <v>0.497545855686</v>
+        <v>8.065611857072</v>
       </c>
       <c r="S14">
-        <v>9.970206078015652E-06</v>
+        <v>0.0001852727091595022</v>
       </c>
       <c r="T14">
-        <v>1.128738742111981E-05</v>
+        <v>0.0002737111526584044</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H15">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I15">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J15">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P15">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q15">
-        <v>0.04974220974433334</v>
+        <v>0.1308412544547778</v>
       </c>
       <c r="R15">
-        <v>0.447679887699</v>
+        <v>1.177571290093</v>
       </c>
       <c r="S15">
-        <v>5.980635669165757E-06</v>
+        <v>1.803308721934801E-05</v>
       </c>
       <c r="T15">
-        <v>1.015612184355334E-05</v>
+        <v>3.996155541085097E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H16">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I16">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J16">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N16">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O16">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P16">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q16">
-        <v>0.001156190772</v>
+        <v>0.003961511457444445</v>
       </c>
       <c r="R16">
-        <v>0.010405716948</v>
+        <v>0.03565360311700001</v>
       </c>
       <c r="S16">
-        <v>1.390118333488638E-07</v>
+        <v>5.459920262170299E-07</v>
       </c>
       <c r="T16">
-        <v>2.360653942633037E-07</v>
+        <v>1.209925418990099E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H17">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I17">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J17">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N17">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O17">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P17">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q17">
-        <v>1.6889216857205</v>
+        <v>5.453161497916001</v>
       </c>
       <c r="R17">
-        <v>10.133530114323</v>
+        <v>32.71896898749601</v>
       </c>
       <c r="S17">
-        <v>0.0002030634611522918</v>
+        <v>0.0007515774540903507</v>
       </c>
       <c r="T17">
-        <v>0.0002298905297608063</v>
+        <v>0.001110336930918615</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H18">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I18">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J18">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N18">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O18">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P18">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q18">
-        <v>0.278093259224</v>
+        <v>0.01693605533277778</v>
       </c>
       <c r="R18">
-        <v>2.502839333016</v>
+        <v>0.152424497995</v>
       </c>
       <c r="S18">
-        <v>3.343587818108712E-05</v>
+        <v>2.334197759264401E-06</v>
       </c>
       <c r="T18">
-        <v>5.677972569104771E-05</v>
+        <v>5.172612540610837E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H19">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I19">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J19">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N19">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O19">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P19">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q19">
-        <v>0.002580892295666667</v>
+        <v>0.004314935719111112</v>
       </c>
       <c r="R19">
-        <v>0.023228030661</v>
+        <v>0.038834421472</v>
       </c>
       <c r="S19">
-        <v>3.103074149917027E-07</v>
+        <v>5.947024315293809E-07</v>
       </c>
       <c r="T19">
-        <v>5.269540045487189E-07</v>
+        <v>1.317868309594323E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H20">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I20">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J20">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N20">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O20">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P20">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q20">
-        <v>0.206524277403</v>
+        <v>3.69587038926</v>
       </c>
       <c r="R20">
-        <v>0.8260971096119999</v>
+        <v>14.78348155704</v>
       </c>
       <c r="S20">
-        <v>2.48309527528735E-05</v>
+        <v>0.0005093802666342255</v>
       </c>
       <c r="T20">
-        <v>1.874094220079802E-05</v>
+        <v>0.0005016859041801965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H21">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I21">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J21">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P21">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q21">
-        <v>0.1238837442596667</v>
+        <v>0.3597289281475001</v>
       </c>
       <c r="R21">
-        <v>0.7433024655579999</v>
+        <v>2.158373568885</v>
       </c>
       <c r="S21">
-        <v>1.489486582034236E-05</v>
+        <v>4.957934073345748E-05</v>
       </c>
       <c r="T21">
-        <v>1.686265256547847E-05</v>
+        <v>7.324564185281915E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H22">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I22">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J22">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N22">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O22">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P22">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q22">
-        <v>0.002879511035999999</v>
+        <v>0.0108915974275</v>
       </c>
       <c r="R22">
-        <v>0.017277066216</v>
+        <v>0.06534958456500001</v>
       </c>
       <c r="S22">
-        <v>3.46211125323396E-07</v>
+        <v>1.501125368956303E-06</v>
       </c>
       <c r="T22">
-        <v>3.919496819272164E-07</v>
+        <v>2.21767553832269E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H23">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I23">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J23">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N23">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O23">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P23">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q23">
-        <v>4.206285632741499</v>
+        <v>14.99267145393</v>
       </c>
       <c r="R23">
-        <v>16.825142530966</v>
+        <v>59.97068581572</v>
       </c>
       <c r="S23">
-        <v>0.0005057326970227552</v>
+        <v>0.002066352490324019</v>
       </c>
       <c r="T23">
-        <v>0.0003816972847673089</v>
+        <v>0.002035139532029828</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H24">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I24">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J24">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N24">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O24">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P24">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q24">
-        <v>0.6925955719119999</v>
+        <v>0.0465632117125</v>
       </c>
       <c r="R24">
-        <v>4.155573431472</v>
+        <v>0.279379270275</v>
       </c>
       <c r="S24">
-        <v>8.327257279025571E-05</v>
+        <v>6.417535979179214E-06</v>
       </c>
       <c r="T24">
-        <v>9.427385786032699E-05</v>
+        <v>9.480895368004256E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H25">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I25">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J25">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N25">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O25">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P25">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q25">
-        <v>0.006427752260333333</v>
+        <v>0.01186328584</v>
       </c>
       <c r="R25">
-        <v>0.038566513562</v>
+        <v>0.07117971503999999</v>
       </c>
       <c r="S25">
-        <v>7.72825426097796E-07</v>
+        <v>1.635047517331139E-06</v>
       </c>
       <c r="T25">
-        <v>8.749247432801284E-07</v>
+        <v>2.415524351374852E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H26">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I26">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J26">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N26">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O26">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P26">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q26">
-        <v>148.385969974076</v>
+        <v>7.881645974552</v>
       </c>
       <c r="R26">
-        <v>890.315819844456</v>
+        <v>47.289875847312</v>
       </c>
       <c r="S26">
-        <v>0.0178408323512772</v>
+        <v>0.001086281309999541</v>
       </c>
       <c r="T26">
-        <v>0.02019781588147404</v>
+        <v>0.001604808991135792</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H27">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I27">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J27">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.157581</v>
       </c>
       <c r="O27">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P27">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q27">
-        <v>89.00943650377823</v>
+        <v>0.7671416364336667</v>
       </c>
       <c r="R27">
-        <v>801.084928534004</v>
+        <v>6.904274727903</v>
       </c>
       <c r="S27">
-        <v>0.01070183680184181</v>
+        <v>0.0001057306588586939</v>
       </c>
       <c r="T27">
-        <v>0.01817351273706491</v>
+        <v>0.0002343005127859764</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H28">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I28">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J28">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N28">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O28">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P28">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q28">
-        <v>2.068904651312</v>
+        <v>0.02322692788966667</v>
       </c>
       <c r="R28">
-        <v>18.620141861808</v>
+        <v>0.209042351007</v>
       </c>
       <c r="S28">
-        <v>0.0002487498045892317</v>
+        <v>3.201232044260417E-06</v>
       </c>
       <c r="T28">
-        <v>0.0004224188637661522</v>
+        <v>7.093971773310683E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H29">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I29">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J29">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N29">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O29">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P29">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q29">
-        <v>3022.181127812052</v>
+        <v>31.972692807636</v>
       </c>
       <c r="R29">
-        <v>18133.08676687231</v>
+        <v>191.836156845816</v>
       </c>
       <c r="S29">
-        <v>0.3633647227288976</v>
+        <v>0.004406609829904966</v>
       </c>
       <c r="T29">
-        <v>0.411369471053616</v>
+        <v>0.00651006973088936</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H30">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I30">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J30">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N30">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O30">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P30">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q30">
-        <v>497.6241390612374</v>
+        <v>0.09929859857166666</v>
       </c>
       <c r="R30">
-        <v>4478.617251551136</v>
+        <v>0.893687387145</v>
       </c>
       <c r="S30">
-        <v>0.05983064868256235</v>
+        <v>1.368574687137985E-05</v>
       </c>
       <c r="T30">
-        <v>0.101602470307926</v>
+        <v>3.032779275601483E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H31">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I31">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J31">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N31">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O31">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P31">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q31">
-        <v>4.618286362728445</v>
+        <v>0.02529910663466667</v>
       </c>
       <c r="R31">
-        <v>41.56457726455601</v>
+        <v>0.227691959712</v>
       </c>
       <c r="S31">
-        <v>0.0005552686198164336</v>
+        <v>3.486828358652063E-06</v>
       </c>
       <c r="T31">
-        <v>0.0009429391908676551</v>
+        <v>7.726856914045293E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H32">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I32">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J32">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.533117</v>
+        <v>27.937112</v>
       </c>
       <c r="N32">
-        <v>9.066234</v>
+        <v>55.874224</v>
       </c>
       <c r="O32">
-        <v>0.0394235894695292</v>
+        <v>0.1933230395895585</v>
       </c>
       <c r="P32">
-        <v>0.03654333378744622</v>
+        <v>0.1911777832146586</v>
       </c>
       <c r="Q32">
-        <v>1.078717142749</v>
+        <v>1.728059375130667</v>
       </c>
       <c r="R32">
-        <v>6.472302856493999</v>
+        <v>10.368356250784</v>
       </c>
       <c r="S32">
-        <v>0.000129696976753233</v>
+        <v>0.000238168348062681</v>
       </c>
       <c r="T32">
-        <v>0.0001468314709351599</v>
+        <v>0.0003518561010454196</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H33">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I33">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J33">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.157581</v>
       </c>
       <c r="O33">
-        <v>0.02364827000997559</v>
+        <v>0.01881664736400372</v>
       </c>
       <c r="P33">
-        <v>0.03288081968556397</v>
+        <v>0.02791176575399093</v>
       </c>
       <c r="Q33">
-        <v>0.6470692952967778</v>
+        <v>0.1681966306495556</v>
       </c>
       <c r="R33">
-        <v>5.823623657671</v>
+        <v>1.513769675846</v>
       </c>
       <c r="S33">
-        <v>7.779882976177431E-05</v>
+        <v>2.318156091626452E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001321154536164314</v>
+        <v>5.137063996847984E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H34">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I34">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J34">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.063204</v>
+        <v>0.08232966666666668</v>
       </c>
       <c r="N34">
-        <v>0.189612</v>
+        <v>0.246989</v>
       </c>
       <c r="O34">
-        <v>0.0005496722341011987</v>
+        <v>0.0005697160611445862</v>
       </c>
       <c r="P34">
-        <v>0.0007642704353434132</v>
+        <v>0.0008450911013709168</v>
       </c>
       <c r="Q34">
-        <v>0.015040255588</v>
+        <v>0.00509252897488889</v>
       </c>
       <c r="R34">
-        <v>0.135362300292</v>
+        <v>0.045832760774</v>
       </c>
       <c r="S34">
-        <v>1.808329173659391E-06</v>
+        <v>7.018735761431309E-07</v>
       </c>
       <c r="T34">
-        <v>3.070846049964908E-06</v>
+        <v>1.555360957516066E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H35">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I35">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J35">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>92.32611850000001</v>
+        <v>113.329716</v>
       </c>
       <c r="N35">
-        <v>184.652237</v>
+        <v>226.659432</v>
       </c>
       <c r="O35">
-        <v>0.802941330007389</v>
+        <v>0.7842344324259937</v>
       </c>
       <c r="P35">
-        <v>0.7442790833867324</v>
+        <v>0.775531983306894</v>
       </c>
       <c r="Q35">
-        <v>21.97026168736117</v>
+        <v>7.010047359752001</v>
       </c>
       <c r="R35">
-        <v>131.821570124167</v>
+        <v>42.060284158512</v>
       </c>
       <c r="S35">
-        <v>0.00264154188934694</v>
+        <v>0.0009661539548587839</v>
       </c>
       <c r="T35">
-        <v>0.00299052060317192</v>
+        <v>0.001427339805358003</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.06185533333333334</v>
+      </c>
+      <c r="H36">
+        <v>0.185566</v>
+      </c>
+      <c r="I36">
+        <v>0.001231970843042469</v>
+      </c>
+      <c r="J36">
+        <v>0.001840465430286677</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G36">
-        <v>0.2379636666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.7138909999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.003289831760587828</v>
-      </c>
-      <c r="J36">
-        <v>0.004018009735762015</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
-        <v>15.202168</v>
+        <v>0.3519716666666666</v>
       </c>
       <c r="N36">
-        <v>45.606504</v>
+        <v>1.055915</v>
       </c>
       <c r="O36">
-        <v>0.1322101393541825</v>
+        <v>0.002435621564942105</v>
       </c>
       <c r="P36">
-        <v>0.1838264596469164</v>
+        <v>0.003612891142132126</v>
       </c>
       <c r="Q36">
-        <v>3.617563638562666</v>
+        <v>0.02177132476555555</v>
       </c>
       <c r="R36">
-        <v>32.558072747064</v>
+        <v>0.19594192289</v>
       </c>
       <c r="S36">
-        <v>0.0004349491155191323</v>
+        <v>3.000614752694144E-06</v>
       </c>
       <c r="T36">
-        <v>0.0007386165045519733</v>
+        <v>6.649401250483126E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H37">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I37">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J37">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.1410863333333333</v>
+        <v>0.08967466666666667</v>
       </c>
       <c r="N37">
-        <v>0.4232590000000001</v>
+        <v>0.269024</v>
       </c>
       <c r="O37">
-        <v>0.001226998924822476</v>
+        <v>0.0006205429943574862</v>
       </c>
       <c r="P37">
-        <v>0.001706033057997478</v>
+        <v>0.0009204854809534413</v>
       </c>
       <c r="Q37">
-        <v>0.03357342119655556</v>
+        <v>0.005546856398222223</v>
       </c>
       <c r="R37">
-        <v>0.302160790769</v>
+        <v>0.049921707584</v>
       </c>
       <c r="S37">
-        <v>4.036620033088097E-06</v>
+        <v>7.644908759026906E-07</v>
       </c>
       <c r="T37">
-        <v>6.854857436565708E-06</v>
+        <v>1.694121706775614E-06</v>
       </c>
     </row>
   </sheetData>
